--- a/inferences/places_no_wikidata.xlsx
+++ b/inferences/places_no_wikidata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/mhk-home/sources/dehergne-locations/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/mhk-home/sources/dehergne-locations/inferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CD6BC-2879-0746-AC9B-BCD6CFF933EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B2EA6-53B8-ED46-9085-33B6607C7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8020,13 +8020,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="B538" sqref="B538:E558"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
